--- a/results/pvalue_OFFSIDES_rare_target_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.514</t>
+          <t>24.469</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22.347</t>
+          <t>41.206</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.341</t>
+          <t>17.105</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19.916</t>
+          <t>29.972</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.852</t>
+          <t>7.841</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
